--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Models to Compare Fractions 4.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Models to Compare Fractions 4.xlsx_with_dialog_acts.xlsx
@@ -813,12 +813,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1079,12 +1079,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
